--- a/VerveStacks_FIN/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_FIN/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05827271-A12A-41F4-872A-8860EAB80DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D326732-F5CC-4739-B26E-F66352B7E8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A30220F-3AE3-B975-1EA4-1CD53F4257D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA09DF1-5DCB-5AA8-E6E2-3B4A1FE627E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_FIN/SuppXLS/Scen_Base_VS.xlsx
+++ b/VerveStacks_FIN/SuppXLS/Scen_Base_VS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D326732-F5CC-4739-B26E-F66352B7E8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DE012DB-36ED-42D7-938A-1CA90F99DB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -611,7 +611,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCA09DF1-5DCB-5AA8-E6E2-3B4A1FE627E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB65BA5-95BF-A797-A2C3-7E2D403C2818}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
